--- a/10/1/Componentes de demanda 2019 a 2021 - Mensual.xlsx
+++ b/10/1/Componentes de demanda 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Serie</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,6 +850,23 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I23">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Componentes de demanda 2019 a 2021 - Mensual.xlsx
+++ b/10/1/Componentes de demanda 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Serie</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,6 +870,23 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>16.4</v>
+      </c>
+      <c r="E24">
+        <v>2.4</v>
+      </c>
+      <c r="H24">
+        <v>11.7</v>
+      </c>
+      <c r="I24">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/10/1/Componentes de demanda 2019 a 2021 - Mensual.xlsx
+++ b/10/1/Componentes de demanda 2019 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Serie</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -887,6 +890,23 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>17.1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>12.3</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
